--- a/Paquete/Database.xlsx
+++ b/Paquete/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mv" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,8 +96,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -118,31 +122,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>50000</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>200000</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2" s="1" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -184,20 +229,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>

--- a/Paquete/Database.xlsx
+++ b/Paquete/Database.xlsx
@@ -232,7 +232,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,6 +245,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>892.8571428571429</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>1750</v>
@@ -255,8 +266,8 @@
       <c r="C21" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="E21" t="n" s="0">
-        <v>200.0</v>
+      <c r="E21" s="1" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Paquete/Database.xlsx
+++ b/Paquete/Database.xlsx
@@ -22,7 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>Excelente</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -96,7 +100,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -105,6 +109,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,10 +235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,14 +252,33 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="E5" t="n" s="0">
-        <v>892.8571428571429</v>
+      <c r="E5" s="1" t="n">
+        <v>892.857142857143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,6 +293,25 @@
       </c>
       <c r="E21" s="1" t="n">
         <v>200</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paquete/Database.xlsx
+++ b/Paquete/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mv" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,17 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Excelente</t>
+    <t xml:space="preserve">Excelente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -100,7 +101,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -109,8 +110,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,10 +131,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -152,6 +155,17 @@
         <v>200000</v>
       </c>
       <c r="C2" s="1" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E9" t="n" s="0">
         <v>0.25</v>
       </c>
     </row>
@@ -237,8 +251,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,21 +310,21 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="F37" t="s" s="0">
+      <c r="F37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
